--- a/data/KKDBas.xlsx
+++ b/data/KKDBas.xlsx
@@ -10,8 +10,8 @@
     <sheet name="Stand" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Player xG" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Shots" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Stand2" sheetId="9" state="visible" r:id="rId6"/>
-    <sheet name="Wedstrijden2" r:id="rId10" sheetId="10"/>
+    <sheet name="Stand2" sheetId="17" state="visible" r:id="rId6"/>
+    <sheet name="Wedstrijden2" r:id="rId10" sheetId="18"/>
   </sheets>
 </workbook>
 </file>
@@ -2912,7 +2912,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>

--- a/data/KKDBas.xlsx
+++ b/data/KKDBas.xlsx
@@ -10,8 +10,8 @@
     <sheet name="Stand" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Player xG" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Shots" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Stand2" sheetId="17" state="visible" r:id="rId6"/>
-    <sheet name="Wedstrijden2" r:id="rId10" sheetId="18"/>
+    <sheet name="Stand2" sheetId="21" state="visible" r:id="rId6"/>
+    <sheet name="Wedstrijden2" r:id="rId10" sheetId="22"/>
   </sheets>
 </workbook>
 </file>
@@ -2912,1026 +2912,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>558</v>
-      </c>
-      <c r="B1" t="s">
-        <v>559</v>
-      </c>
-      <c r="C1" t="s">
-        <v>560</v>
-      </c>
-      <c r="D1" t="s">
-        <v>561</v>
-      </c>
-      <c r="E1" t="s">
-        <v>562</v>
-      </c>
-      <c r="F1" t="s">
-        <v>563</v>
-      </c>
-      <c r="G1" t="s">
-        <v>564</v>
-      </c>
-      <c r="H1" t="s">
-        <v>565</v>
-      </c>
-      <c r="I1" t="s">
-        <v>566</v>
-      </c>
-      <c r="J1" t="s">
-        <v>567</v>
-      </c>
-      <c r="K1" t="s">
-        <v>568</v>
-      </c>
-      <c r="L1" t="s">
-        <v>569</v>
-      </c>
-      <c r="M1" t="s">
-        <v>570</v>
-      </c>
-      <c r="N1" t="s">
-        <v>571</v>
-      </c>
-      <c r="O1" t="s">
-        <v>572</v>
-      </c>
-      <c r="P1" t="s">
-        <v>573</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>575</v>
-      </c>
-      <c r="B2" t="s">
-        <v>540</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>549</v>
-      </c>
-      <c r="F2" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>582</v>
-      </c>
-      <c r="I2" t="s">
-        <v>600</v>
-      </c>
-      <c r="J2" t="s">
-        <v>618</v>
-      </c>
-      <c r="K2" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.213</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1.462</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.632</v>
-      </c>
-      <c r="P2" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>575</v>
-      </c>
-      <c r="B3" t="s">
-        <v>556</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>545</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>583</v>
-      </c>
-      <c r="I3" t="s">
-        <v>601</v>
-      </c>
-      <c r="J3" t="s">
-        <v>619</v>
-      </c>
-      <c r="K3" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.825</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.901</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3.92</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>575</v>
-      </c>
-      <c r="B4" t="s">
-        <v>541</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>548</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.81</v>
-      </c>
-      <c r="H4" t="s">
-        <v>584</v>
-      </c>
-      <c r="I4" t="s">
-        <v>602</v>
-      </c>
-      <c r="J4" t="s">
-        <v>620</v>
-      </c>
-      <c r="K4" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1.352</v>
-      </c>
-      <c r="O4" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.05</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>575</v>
-      </c>
-      <c r="B5" t="s">
-        <v>557</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>551</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="H5" t="s">
-        <v>585</v>
-      </c>
-      <c r="I5" t="s">
-        <v>603</v>
-      </c>
-      <c r="J5" t="s">
-        <v>621</v>
-      </c>
-      <c r="K5" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.997</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>4.32</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>575</v>
-      </c>
-      <c r="B6" t="s">
-        <v>544</v>
-      </c>
-      <c r="C6" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>554</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="H6" t="s">
-        <v>586</v>
-      </c>
-      <c r="I6" t="s">
-        <v>604</v>
-      </c>
-      <c r="J6" t="s">
-        <v>622</v>
-      </c>
-      <c r="K6" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.545</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1.531</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.69</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>576</v>
-      </c>
-      <c r="B7" t="s">
-        <v>550</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>542</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="H7" t="s">
-        <v>587</v>
-      </c>
-      <c r="I7" t="s">
-        <v>605</v>
-      </c>
-      <c r="J7" t="s">
-        <v>623</v>
-      </c>
-      <c r="K7" t="n">
-        <v>47.0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>2.104</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1.344</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.72</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>576</v>
-      </c>
-      <c r="B8" t="s">
-        <v>539</v>
-      </c>
-      <c r="C8" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>546</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="H8" t="s">
-        <v>588</v>
-      </c>
-      <c r="I8" t="s">
-        <v>606</v>
-      </c>
-      <c r="J8" t="s">
-        <v>624</v>
-      </c>
-      <c r="K8" t="n">
-        <v>58.0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>3.881</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.617</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.877</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3.68</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>577</v>
-      </c>
-      <c r="B9" t="s">
-        <v>547</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>553</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="H9" t="s">
-        <v>589</v>
-      </c>
-      <c r="I9" t="s">
-        <v>607</v>
-      </c>
-      <c r="J9" t="s">
-        <v>625</v>
-      </c>
-      <c r="K9" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.835</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="P9" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.17</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>577</v>
-      </c>
-      <c r="B10" t="s">
-        <v>543</v>
-      </c>
-      <c r="C10" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>555</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="H10" t="s">
-        <v>590</v>
-      </c>
-      <c r="I10" t="s">
-        <v>608</v>
-      </c>
-      <c r="J10" t="s">
-        <v>626</v>
-      </c>
-      <c r="K10" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.517</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.685</v>
-      </c>
-      <c r="O10" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.53</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>578</v>
-      </c>
-      <c r="B11" t="s">
-        <v>553</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>550</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="H11" t="s">
-        <v>591</v>
-      </c>
-      <c r="I11" t="s">
-        <v>609</v>
-      </c>
-      <c r="J11" t="s">
-        <v>627</v>
-      </c>
-      <c r="K11" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.597</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1.066</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.636</v>
-      </c>
-      <c r="P11" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>4.94</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>578</v>
-      </c>
-      <c r="B12" t="s">
-        <v>548</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>544</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="H12" t="s">
-        <v>592</v>
-      </c>
-      <c r="I12" t="s">
-        <v>610</v>
-      </c>
-      <c r="J12" t="s">
-        <v>628</v>
-      </c>
-      <c r="K12" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.213</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.967</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.512</v>
-      </c>
-      <c r="P12" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>6.07</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>578</v>
-      </c>
-      <c r="B13" t="s">
-        <v>542</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>540</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H13" t="s">
-        <v>593</v>
-      </c>
-      <c r="I13" t="s">
-        <v>611</v>
-      </c>
-      <c r="J13" t="s">
-        <v>629</v>
-      </c>
-      <c r="K13" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.938</v>
-      </c>
-      <c r="N13" t="n">
-        <v>1.019</v>
-      </c>
-      <c r="O13" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>3.11</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>578</v>
-      </c>
-      <c r="B14" t="s">
-        <v>549</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>543</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="H14" t="s">
-        <v>594</v>
-      </c>
-      <c r="I14" t="s">
-        <v>612</v>
-      </c>
-      <c r="J14" t="s">
-        <v>630</v>
-      </c>
-      <c r="K14" t="n">
-        <v>37.0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>2.399</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1.028</v>
-      </c>
-      <c r="O14" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.64</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>579</v>
-      </c>
-      <c r="B15" t="s">
-        <v>554</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>541</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="H15" t="s">
-        <v>595</v>
-      </c>
-      <c r="I15" t="s">
-        <v>613</v>
-      </c>
-      <c r="J15" t="s">
-        <v>631</v>
-      </c>
-      <c r="K15" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.473</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1.925</v>
-      </c>
-      <c r="O15" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.43</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>580</v>
-      </c>
-      <c r="B16" t="s">
-        <v>555</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>552</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="G16" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="H16" t="s">
-        <v>596</v>
-      </c>
-      <c r="I16" t="s">
-        <v>614</v>
-      </c>
-      <c r="J16" t="s">
-        <v>632</v>
-      </c>
-      <c r="K16" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.912</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0.998</v>
-      </c>
-      <c r="O16" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.99</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>580</v>
-      </c>
-      <c r="B17" t="s">
-        <v>546</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>557</v>
-      </c>
-      <c r="F17" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="H17" t="s">
-        <v>597</v>
-      </c>
-      <c r="I17" t="s">
-        <v>615</v>
-      </c>
-      <c r="J17" t="s">
-        <v>633</v>
-      </c>
-      <c r="K17" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>2.382</v>
-      </c>
-      <c r="N17" t="n">
-        <v>1.323</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.699</v>
-      </c>
-      <c r="P17" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>4.74</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>581</v>
-      </c>
-      <c r="B18" t="s">
-        <v>545</v>
-      </c>
-      <c r="C18" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>547</v>
-      </c>
-      <c r="F18" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="G18" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="H18" t="s">
-        <v>598</v>
-      </c>
-      <c r="I18" t="s">
-        <v>616</v>
-      </c>
-      <c r="J18" t="s">
-        <v>634</v>
-      </c>
-      <c r="K18" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.575</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0.994</v>
-      </c>
-      <c r="O18" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.89</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>581</v>
-      </c>
-      <c r="B19" t="s">
-        <v>551</v>
-      </c>
-      <c r="C19" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>539</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="G19" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="H19" t="s">
-        <v>599</v>
-      </c>
-      <c r="I19" t="s">
-        <v>617</v>
-      </c>
-      <c r="J19" t="s">
-        <v>635</v>
-      </c>
-      <c r="K19" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.526</v>
-      </c>
-      <c r="N19" t="n">
-        <v>2.048</v>
-      </c>
-      <c r="O19" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="P19" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.49</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
@@ -4883,6 +3863,1026 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E1" t="s">
+        <v>562</v>
+      </c>
+      <c r="F1" t="s">
+        <v>563</v>
+      </c>
+      <c r="G1" t="s">
+        <v>564</v>
+      </c>
+      <c r="H1" t="s">
+        <v>565</v>
+      </c>
+      <c r="I1" t="s">
+        <v>566</v>
+      </c>
+      <c r="J1" t="s">
+        <v>567</v>
+      </c>
+      <c r="K1" t="s">
+        <v>568</v>
+      </c>
+      <c r="L1" t="s">
+        <v>569</v>
+      </c>
+      <c r="M1" t="s">
+        <v>570</v>
+      </c>
+      <c r="N1" t="s">
+        <v>571</v>
+      </c>
+      <c r="O1" t="s">
+        <v>572</v>
+      </c>
+      <c r="P1" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>549</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>582</v>
+      </c>
+      <c r="I2" t="s">
+        <v>600</v>
+      </c>
+      <c r="J2" t="s">
+        <v>618</v>
+      </c>
+      <c r="K2" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.213</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.462</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.632</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>575</v>
+      </c>
+      <c r="B3" t="s">
+        <v>556</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>545</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>583</v>
+      </c>
+      <c r="I3" t="s">
+        <v>601</v>
+      </c>
+      <c r="J3" t="s">
+        <v>619</v>
+      </c>
+      <c r="K3" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.825</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.901</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B4" t="s">
+        <v>541</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>548</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="H4" t="s">
+        <v>584</v>
+      </c>
+      <c r="I4" t="s">
+        <v>602</v>
+      </c>
+      <c r="J4" t="s">
+        <v>620</v>
+      </c>
+      <c r="K4" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.352</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>575</v>
+      </c>
+      <c r="B5" t="s">
+        <v>557</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>551</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="H5" t="s">
+        <v>585</v>
+      </c>
+      <c r="I5" t="s">
+        <v>603</v>
+      </c>
+      <c r="J5" t="s">
+        <v>621</v>
+      </c>
+      <c r="K5" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>575</v>
+      </c>
+      <c r="B6" t="s">
+        <v>544</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>554</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H6" t="s">
+        <v>586</v>
+      </c>
+      <c r="I6" t="s">
+        <v>604</v>
+      </c>
+      <c r="J6" t="s">
+        <v>622</v>
+      </c>
+      <c r="K6" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.545</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.531</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>576</v>
+      </c>
+      <c r="B7" t="s">
+        <v>550</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>542</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="H7" t="s">
+        <v>587</v>
+      </c>
+      <c r="I7" t="s">
+        <v>605</v>
+      </c>
+      <c r="J7" t="s">
+        <v>623</v>
+      </c>
+      <c r="K7" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2.104</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.344</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>576</v>
+      </c>
+      <c r="B8" t="s">
+        <v>539</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>546</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H8" t="s">
+        <v>588</v>
+      </c>
+      <c r="I8" t="s">
+        <v>606</v>
+      </c>
+      <c r="J8" t="s">
+        <v>624</v>
+      </c>
+      <c r="K8" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3.881</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.877</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>577</v>
+      </c>
+      <c r="B9" t="s">
+        <v>547</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>553</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H9" t="s">
+        <v>589</v>
+      </c>
+      <c r="I9" t="s">
+        <v>607</v>
+      </c>
+      <c r="J9" t="s">
+        <v>625</v>
+      </c>
+      <c r="K9" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>577</v>
+      </c>
+      <c r="B10" t="s">
+        <v>543</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>555</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H10" t="s">
+        <v>590</v>
+      </c>
+      <c r="I10" t="s">
+        <v>608</v>
+      </c>
+      <c r="J10" t="s">
+        <v>626</v>
+      </c>
+      <c r="K10" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.517</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.685</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.53</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>578</v>
+      </c>
+      <c r="B11" t="s">
+        <v>553</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>550</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H11" t="s">
+        <v>591</v>
+      </c>
+      <c r="I11" t="s">
+        <v>609</v>
+      </c>
+      <c r="J11" t="s">
+        <v>627</v>
+      </c>
+      <c r="K11" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.597</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.066</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.636</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4.94</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>578</v>
+      </c>
+      <c r="B12" t="s">
+        <v>548</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>544</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H12" t="s">
+        <v>592</v>
+      </c>
+      <c r="I12" t="s">
+        <v>610</v>
+      </c>
+      <c r="J12" t="s">
+        <v>628</v>
+      </c>
+      <c r="K12" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.213</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.967</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.512</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>6.07</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>578</v>
+      </c>
+      <c r="B13" t="s">
+        <v>542</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>540</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>593</v>
+      </c>
+      <c r="I13" t="s">
+        <v>611</v>
+      </c>
+      <c r="J13" t="s">
+        <v>629</v>
+      </c>
+      <c r="K13" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.938</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.019</v>
+      </c>
+      <c r="O13" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>578</v>
+      </c>
+      <c r="B14" t="s">
+        <v>549</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>543</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H14" t="s">
+        <v>594</v>
+      </c>
+      <c r="I14" t="s">
+        <v>612</v>
+      </c>
+      <c r="J14" t="s">
+        <v>630</v>
+      </c>
+      <c r="K14" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2.399</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.028</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>579</v>
+      </c>
+      <c r="B15" t="s">
+        <v>554</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>541</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H15" t="s">
+        <v>595</v>
+      </c>
+      <c r="I15" t="s">
+        <v>613</v>
+      </c>
+      <c r="J15" t="s">
+        <v>631</v>
+      </c>
+      <c r="K15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.473</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.43</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>580</v>
+      </c>
+      <c r="B16" t="s">
+        <v>555</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>552</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="H16" t="s">
+        <v>596</v>
+      </c>
+      <c r="I16" t="s">
+        <v>614</v>
+      </c>
+      <c r="J16" t="s">
+        <v>632</v>
+      </c>
+      <c r="K16" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.912</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="O16" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>580</v>
+      </c>
+      <c r="B17" t="s">
+        <v>546</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>557</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="H17" t="s">
+        <v>597</v>
+      </c>
+      <c r="I17" t="s">
+        <v>615</v>
+      </c>
+      <c r="J17" t="s">
+        <v>633</v>
+      </c>
+      <c r="K17" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2.382</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.323</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.699</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>581</v>
+      </c>
+      <c r="B18" t="s">
+        <v>545</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>547</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="H18" t="s">
+        <v>598</v>
+      </c>
+      <c r="I18" t="s">
+        <v>616</v>
+      </c>
+      <c r="J18" t="s">
+        <v>634</v>
+      </c>
+      <c r="K18" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.994</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>581</v>
+      </c>
+      <c r="B19" t="s">
+        <v>551</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>539</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H19" t="s">
+        <v>599</v>
+      </c>
+      <c r="I19" t="s">
+        <v>617</v>
+      </c>
+      <c r="J19" t="s">
+        <v>635</v>
+      </c>
+      <c r="K19" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.526</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2.048</v>
+      </c>
+      <c r="O19" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
